--- a/biology/Écologie/Matorral_de_la_vallée_de_Tehuacán/Matorral_de_la_vallée_de_Tehuacán.xlsx
+++ b/biology/Écologie/Matorral_de_la_vallée_de_Tehuacán/Matorral_de_la_vallée_de_Tehuacán.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Matorral_de_la_vall%C3%A9e_de_Tehuac%C3%A1n</t>
+          <t>Matorral_de_la_vallée_de_Tehuacán</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le matorral de la vallée de Tehuacán est une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui appartient au biome des déserts et brousses xériques de l'écozone néotropicale. Il se situe entre les états mexicains de Puebla et d'Oaxaca.
 La vallée de Tehuacán est limitée au nord par la vallée de Tepeaca, au sud, elle se termine par les gorges de Cuicatlán, à l'ouest elle est séparée de la Mixteca par la sierra de Zapotitlán, et à l'est, la sierra de Tehuacán la sépare de la Sierra Negra et le Citlaltépetl.
